--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="130">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>奇美實業(股)(公開發行）</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>林◦涵</t>
+  </si>
+  <si>
+    <t>2012-04-09</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -829,22 +841,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -855,19 +867,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -878,19 +890,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -901,19 +913,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -924,19 +936,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -947,19 +959,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -970,19 +982,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1547,13 +1559,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1572,13 +1584,22 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1595,16 +1616,25 @@
       <c r="G2" s="2">
         <v>53262050</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1618,16 +1648,25 @@
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1641,13 +1680,22 @@
       <c r="G4" s="2">
         <v>1356670</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1664,13 +1712,22 @@
       <c r="G5" s="2">
         <v>9800000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1687,13 +1744,22 @@
       <c r="G6" s="2">
         <v>5202070</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1710,13 +1776,22 @@
       <c r="G7" s="2">
         <v>2777160</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1733,13 +1808,22 @@
       <c r="G8" s="2">
         <v>609000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1756,13 +1840,22 @@
       <c r="G9" s="2">
         <v>937400</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1779,13 +1872,22 @@
       <c r="G10" s="2">
         <v>1916730</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1801,6 +1903,15 @@
       </c>
       <c r="G11" s="2">
         <v>2000000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1741</v>
       </c>
     </row>
   </sheetData>
@@ -1818,13 +1929,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1832,10 +1943,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1846,10 +1957,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1860,10 +1971,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1874,10 +1985,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1888,10 +1999,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1902,10 +2013,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1916,10 +2027,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1930,10 +2041,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1944,10 +2055,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1958,10 +2069,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -1972,10 +2083,10 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -1986,10 +2097,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2000,10 +2111,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -2014,10 +2125,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2028,10 +2139,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2042,10 +2153,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -2056,10 +2167,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -2070,10 +2181,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -2084,10 +2195,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -2098,10 +2209,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -2112,10 +2223,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -2126,10 +2237,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2140,10 +2251,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -2154,10 +2265,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -2168,10 +2279,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -2182,10 +2293,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2196,10 +2307,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2210,10 +2321,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2224,10 +2335,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2238,10 +2349,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2252,10 +2363,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2266,10 +2377,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2280,10 +2391,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2294,10 +2405,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2308,10 +2419,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2322,10 +2433,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2336,10 +2447,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2350,10 +2461,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2377,19 +2488,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2397,22 +2508,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2420,22 +2531,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2456,19 +2567,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2476,22 +2587,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2499,22 +2610,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2522,22 +2633,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2545,22 +2656,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="132">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -226,13 +229,16 @@
     <t>奇菱科技股份有限公司</t>
   </si>
   <si>
-    <t>元晶太陽能科技股份有限 公司</t>
+    <t>元晶太陽能科技股份有限公司</t>
   </si>
   <si>
     <t>林◦謙</t>
   </si>
   <si>
     <t>林◦涵</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-09</t>
@@ -841,22 +847,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -867,19 +873,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -890,19 +896,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -913,19 +919,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -936,19 +942,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -959,19 +965,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -982,19 +988,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1559,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1593,13 +1599,16 @@
       <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1617,24 +1626,27 @@
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1649,24 +1661,27 @@
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1681,21 +1696,24 @@
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1713,21 +1731,24 @@
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1745,21 +1766,24 @@
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1777,21 +1801,24 @@
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1809,21 +1836,24 @@
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1841,21 +1871,24 @@
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1873,21 +1906,24 @@
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1741</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1905,12 +1941,15 @@
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1741</v>
       </c>
     </row>
@@ -1929,13 +1968,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1943,10 +1982,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1957,10 +1996,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1971,10 +2010,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1985,10 +2024,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1999,10 +2038,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2013,10 +2052,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2027,10 +2066,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2041,10 +2080,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2055,10 +2094,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2069,10 +2108,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2083,10 +2122,10 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2097,10 +2136,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2111,10 +2150,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -2125,10 +2164,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2139,10 +2178,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2153,10 +2192,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -2167,10 +2206,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -2181,10 +2220,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -2195,10 +2234,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -2209,10 +2248,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -2223,10 +2262,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -2237,10 +2276,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2251,10 +2290,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -2265,10 +2304,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -2279,10 +2318,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -2293,10 +2332,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2307,10 +2346,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2321,10 +2360,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2335,10 +2374,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2349,10 +2388,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2363,10 +2402,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2377,10 +2416,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2391,10 +2430,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2405,10 +2444,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2419,10 +2458,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2433,10 +2472,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2447,10 +2486,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2461,10 +2500,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2488,19 +2527,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2508,22 +2547,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2531,22 +2570,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2567,19 +2606,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2587,22 +2626,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2610,22 +2649,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2633,22 +2672,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2656,22 +2695,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
   <si>
     <t>土地坐落</t>
   </si>
@@ -199,6 +199,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>奇美實業(股)(公開發行）</t>
   </si>
   <si>
@@ -241,7 +250,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-09</t>
+  </si>
+  <si>
+    <t>tmpf4911</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -847,22 +862,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -873,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -896,19 +911,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -919,19 +934,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -942,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -965,19 +980,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -988,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1565,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1602,13 +1617,22 @@
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1626,27 +1650,36 @@
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1661,27 +1694,36 @@
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1696,24 +1738,33 @@
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="2">
         <v>71</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1731,24 +1782,33 @@
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2">
         <v>72</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1766,24 +1826,33 @@
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1801,24 +1870,33 @@
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1836,24 +1914,33 @@
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1871,24 +1958,33 @@
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1906,24 +2002,33 @@
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1741</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1941,16 +2046,25 @@
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1741</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1968,13 +2082,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1982,10 +2096,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1996,10 +2110,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2010,10 +2124,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2024,10 +2138,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2038,10 +2152,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2052,10 +2166,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2066,10 +2180,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2080,10 +2194,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2094,10 +2208,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2108,10 +2222,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2122,10 +2236,10 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2136,10 +2250,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2150,10 +2264,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -2164,10 +2278,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2178,10 +2292,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2192,10 +2306,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -2206,10 +2320,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -2220,10 +2334,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -2234,10 +2348,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -2248,10 +2362,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -2262,10 +2376,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -2276,10 +2390,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2290,10 +2404,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -2304,10 +2418,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -2318,10 +2432,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -2332,10 +2446,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2346,10 +2460,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2360,10 +2474,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2374,10 +2488,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2388,10 +2502,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2402,10 +2516,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2416,10 +2530,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2430,10 +2544,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2444,10 +2558,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2458,10 +2572,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2472,10 +2586,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2486,10 +2600,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2500,10 +2614,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2527,19 +2641,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2547,22 +2661,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2570,22 +2684,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2606,19 +2720,19 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2626,22 +2740,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2649,22 +2763,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2672,22 +2786,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2695,22 +2809,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,9 +23,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段三小段06410000地號</t>
+  </si>
+  <si>
+    <t>100000分之1640</t>
+  </si>
+  <si>
+    <t>廖婉如</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>9676360(96年評定價格）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-09</t>
+  </si>
+  <si>
+    <t>林佳龍</t>
+  </si>
+  <si>
+    <t>tmpf4911</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,34 +121,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中山區北安段三小段 0641-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 1640</t>
-  </si>
-  <si>
-    <t>廖婉如</t>
-  </si>
-  <si>
-    <t>96年02月 09日</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>9,676,360(96 年評定價格）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>新北市金山區西湖里</t>
   </si>
   <si>
     <t>臺北市中山區明水路</t>
   </si>
   <si>
-    <t>100000 分 之16</t>
+    <t>100000分之16</t>
   </si>
   <si>
     <t>全部</t>
@@ -82,16 +136,13 @@
     <t>81分之2</t>
   </si>
   <si>
-    <t>林佳龍</t>
-  </si>
-  <si>
-    <t>96年12月 18闩</t>
-  </si>
-  <si>
-    <t>95年11月 08日</t>
-  </si>
-  <si>
-    <t>95年11月 08 H</t>
+    <t>96年12月18闩</t>
+  </si>
+  <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>95年11月08H</t>
   </si>
   <si>
     <t>買賣</t>
@@ -100,7 +151,7 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>(超過五年，地 下一二層）</t>
+    <t>(超過五年地下一二層）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -112,10 +163,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA RAV4</t>
-  </si>
-  <si>
-    <t>TOYOTA Previa</t>
+    <t>TOYOTARAV4</t>
+  </si>
+  <si>
+    <t>TOYOTAPrevia</t>
   </si>
   <si>
     <t>101年</t>
@@ -124,7 +175,7 @@
     <t>100年</t>
   </si>
   <si>
-    <t>1’600’000</t>
+    <t>1600000</t>
   </si>
   <si>
     <t>幣別</t>
@@ -163,7 +214,7 @@
     <t>臺灣銀行營業部</t>
   </si>
   <si>
-    <t>台北富邦商業銀行中港分 行</t>
+    <t>台北富邦商業銀行中港分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -178,12 +229,6 @@
     <t>林〇涵</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -196,27 +241,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>奇美實業(股)(公開發行）</t>
   </si>
   <si>
@@ -250,15 +274,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-09</t>
-  </si>
-  <si>
-    <t>tmpf4911</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -292,7 +307,7 @@
     <t>15年繳費金富多终身保險</t>
   </si>
   <si>
-    <t>永安終身壽險 主 約:I£OM005886</t>
+    <t>永安終身壽險主約:I£OM005886</t>
   </si>
   <si>
     <t>永安终身壽險(附約）</t>
@@ -307,22 +322,22 @@
     <t>NRHJ真安心醫療養老保險</t>
   </si>
   <si>
-    <t>PWFB真享受終身分紅保險 (乙型）</t>
-  </si>
-  <si>
-    <t>VULA吉祥變額萬能終身壽險 (A型）</t>
-  </si>
-  <si>
-    <t>VULA吉祥變額萬能终身壽險 (A型）</t>
-  </si>
-  <si>
-    <t>VANB金吉利保本投資連結型 遞延年金保險(乙型）</t>
+    <t>PWFB真享受終身分紅保險(乙型）</t>
+  </si>
+  <si>
+    <t>VULA吉祥變額萬能終身壽險(A型）</t>
+  </si>
+  <si>
+    <t>VULA吉祥變額萬能终身壽險(A型）</t>
+  </si>
+  <si>
+    <t>VANB金吉利保本投資連結型遞延年金保險(乙型）</t>
   </si>
   <si>
     <t>WRHK安心一生終身醫療保險</t>
   </si>
   <si>
-    <t>PWFA真享受終身分紅保險 (甲型）</t>
+    <t>PWFA真享受終身分紅保險(甲型）</t>
   </si>
   <si>
     <t>債權人</t>
@@ -343,16 +358,16 @@
     <t>股東往來借款</t>
   </si>
   <si>
-    <t>宇儂投資有限公司 臺南市南區金華路一段</t>
-  </si>
-  <si>
-    <t>94年09月 06日</t>
-  </si>
-  <si>
-    <t>91年1月31 H、91 年 2 月28曰、91 年3月31 曰、91年4 月30曰</t>
-  </si>
-  <si>
-    <t>股東借款予 公司</t>
+    <t>宇儂投資有限公司臺南市南區金華路一段</t>
+  </si>
+  <si>
+    <t>94年09月06日</t>
+  </si>
+  <si>
+    <t>91年1月31H91年2月28曰91年3月31曰91年4月30曰</t>
+  </si>
+  <si>
+    <t>股東借款予公司</t>
   </si>
   <si>
     <t>債務人</t>
@@ -376,16 +391,16 @@
     <t>聯邦商業銀行</t>
   </si>
   <si>
-    <t>96年05月 16日</t>
-  </si>
-  <si>
-    <t>98年06月 22日</t>
-  </si>
-  <si>
-    <t>98年06月 22 H</t>
-  </si>
-  <si>
-    <t>100年01月 28闩</t>
+    <t>96年05月16日</t>
+  </si>
+  <si>
+    <t>98年06月22日</t>
+  </si>
+  <si>
+    <t>98年06月22H</t>
+  </si>
+  <si>
+    <t>100年01月28闩</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -424,13 +439,13 @@
     <t>緻薰投資有限公司</t>
   </si>
   <si>
-    <t>臺南市南區金華路一段392 號1樓</t>
-  </si>
-  <si>
-    <t>90年02月 20日</t>
-  </si>
-  <si>
-    <t>90年02月 20 H</t>
+    <t>臺南市南區金華路一段392號1樓</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>90年02月20H</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -792,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,31 +835,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>51.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -862,22 +919,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -885,22 +942,22 @@
         <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -908,22 +965,22 @@
         <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -931,22 +988,22 @@
         <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -954,22 +1011,22 @@
         <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -977,22 +1034,22 @@
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,22 +1057,22 @@
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1033,25 +1090,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1059,22 +1116,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>0.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>200000</v>
@@ -1085,25 +1142,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>194.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1111,25 +1168,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>1.93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1147,22 +1204,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1170,19 +1227,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>1070000</v>
@@ -1193,22 +1250,22 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1283,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,10 +1297,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>23928</v>
@@ -1254,10 +1311,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>69800</v>
@@ -1278,19 +1335,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1298,16 +1355,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>96952</v>
@@ -1318,16 +1375,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>34213196</v>
@@ -1338,16 +1395,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>310668</v>
@@ -1358,16 +1415,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2">
         <v>309597</v>
@@ -1378,16 +1435,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>106588</v>
@@ -1398,16 +1455,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>118915</v>
@@ -1418,16 +1475,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>241403</v>
@@ -1438,16 +1495,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>687915</v>
@@ -1458,16 +1515,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>689350</v>
@@ -1478,16 +1535,16 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>1344304</v>
@@ -1498,16 +1555,16 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>1179308</v>
@@ -1518,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>9612737</v>
@@ -1538,16 +1595,16 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <v>304375</v>
@@ -1558,16 +1615,16 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
         <v>110030</v>
@@ -1588,43 +1645,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1632,10 +1689,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>5326205</v>
@@ -1644,28 +1701,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1741</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1676,10 +1733,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1688,28 +1745,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1741</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1720,10 +1777,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1732,28 +1789,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1741</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1764,10 +1821,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>980000</v>
@@ -1776,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1741</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2">
         <v>72</v>
@@ -1808,10 +1865,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>520207</v>
@@ -1820,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1741</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
         <v>73</v>
@@ -1852,10 +1909,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>277716</v>
@@ -1864,28 +1921,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1741</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2">
         <v>74</v>
@@ -1896,10 +1953,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>60900</v>
@@ -1908,28 +1965,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1741</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2">
         <v>75</v>
@@ -1940,10 +1997,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>93740</v>
@@ -1952,28 +2009,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>1741</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2">
         <v>76</v>
@@ -1984,10 +2041,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>191673</v>
@@ -1996,28 +2053,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>1741</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N10" s="2">
         <v>78</v>
@@ -2028,10 +2085,10 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>200000</v>
@@ -2040,28 +2097,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2">
         <v>1741</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N11" s="2">
         <v>79</v>
@@ -2082,13 +2139,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2096,13 +2153,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2110,13 +2167,13 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2124,13 +2181,13 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2138,13 +2195,13 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2152,13 +2209,13 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2166,13 +2223,13 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2180,13 +2237,13 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2194,13 +2251,13 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2208,13 +2265,13 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2222,13 +2279,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2236,13 +2293,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2250,13 +2307,13 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2264,13 +2321,13 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2278,13 +2335,13 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2292,13 +2349,13 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2306,13 +2363,13 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2320,13 +2377,13 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2334,13 +2391,13 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2348,13 +2405,13 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2362,13 +2419,13 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2376,13 +2433,13 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2390,13 +2447,13 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2404,13 +2461,13 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2418,13 +2475,13 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2432,13 +2489,13 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2446,13 +2503,13 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2460,13 +2517,13 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2474,13 +2531,13 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2488,13 +2545,13 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2502,13 +2559,13 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2516,13 +2573,13 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2530,13 +2587,13 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2544,13 +2601,13 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2558,13 +2615,13 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2572,13 +2629,13 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2586,13 +2643,13 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2600,13 +2657,13 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2614,13 +2671,13 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2638,22 +2695,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2661,22 +2718,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2684,22 +2741,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2717,22 +2774,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2740,22 +2797,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2763,22 +2820,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2786,22 +2843,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2809,22 +2866,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -67,25 +67,142 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市中山區北安段三小段06410000地號</t>
-  </si>
-  <si>
-    <t>100000分之1640</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市金山區西湖里</t>
+  </si>
+  <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
+    <t>林佳龍</t>
+  </si>
+  <si>
+    <t>96年12月18闩</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>臺北市中山區明水路</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>81分之2</t>
   </si>
   <si>
     <t>廖婉如</t>
   </si>
   <si>
-    <t>96年02月09日</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>9676360(96年評定價格）</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>95年11月08H</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年地下一二層）</t>
+  </si>
+  <si>
+    <t>TOYOTARAV4</t>
+  </si>
+  <si>
+    <t>101年</t>
+  </si>
+  <si>
+    <t>TOYOTAPrevia</t>
+  </si>
+  <si>
+    <t>100年</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>華南商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>華南商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行營業部</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行中港分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>林〇謙</t>
+  </si>
+  <si>
+    <t>林〇涵</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>奇美實業(股)(公開發行）</t>
+  </si>
+  <si>
+    <t>聯奇開發股份有限公司</t>
+  </si>
+  <si>
+    <t>奇美電子(上市）</t>
+  </si>
+  <si>
+    <t>奇菱光電(股)(公開發行）</t>
+  </si>
+  <si>
+    <t>奇美食品股份有限公司</t>
+  </si>
+  <si>
+    <t>佳美貿易股份有限公司</t>
+  </si>
+  <si>
+    <t>奇菱科技股份有限公司</t>
+  </si>
+  <si>
+    <t>元晶太陽能科技股份有限公司</t>
+  </si>
+  <si>
+    <t>林◦謙</t>
+  </si>
+  <si>
+    <t>林◦涵</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -94,198 +211,15 @@
     <t>2012-04-09</t>
   </si>
   <si>
-    <t>林佳龍</t>
-  </si>
-  <si>
     <t>tmpf4911</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市金山區西湖里</t>
-  </si>
-  <si>
-    <t>臺北市中山區明水路</t>
-  </si>
-  <si>
-    <t>100000分之16</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>81分之2</t>
-  </si>
-  <si>
-    <t>96年12月18闩</t>
-  </si>
-  <si>
-    <t>95年11月08日</t>
-  </si>
-  <si>
-    <t>95年11月08H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年地下一二層）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>TOYOTARAV4</t>
-  </si>
-  <si>
-    <t>TOYOTAPrevia</t>
-  </si>
-  <si>
-    <t>101年</t>
-  </si>
-  <si>
-    <t>100年</t>
-  </si>
-  <si>
-    <t>1600000</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>新臺幣總額今折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>華南商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行營業部</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行中港分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>林〇謙</t>
-  </si>
-  <si>
-    <t>林〇涵</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>奇美實業(股)(公開發行）</t>
-  </si>
-  <si>
-    <t>聯奇開發股份有限公司</t>
-  </si>
-  <si>
-    <t>奇美電子(上市）</t>
-  </si>
-  <si>
-    <t>奇菱光電(股)(公開發行）</t>
-  </si>
-  <si>
-    <t>奇美食品股份有限公司</t>
-  </si>
-  <si>
-    <t>佳美貿易股份有限公司</t>
-  </si>
-  <si>
-    <t>奇菱科技股份有限公司</t>
-  </si>
-  <si>
-    <t>元晶太陽能科技股份有限公司</t>
-  </si>
-  <si>
-    <t>林◦謙</t>
-  </si>
-  <si>
-    <t>林◦涵</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>20年繳費祥松增額終身壽險</t>
+  </si>
+  <si>
     <t>二商美邦人壽</t>
   </si>
   <si>
@@ -295,9 +229,6 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>20年繳費祥松增額終身壽險</t>
-  </si>
-  <si>
     <t>15年繳費金富多終身保險</t>
   </si>
   <si>
@@ -340,21 +271,6 @@
     <t>PWFA真享受終身分紅保險(甲型）</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>股東往來借款</t>
   </si>
   <si>
@@ -364,36 +280,33 @@
     <t>94年09月06日</t>
   </si>
   <si>
+    <t>股東借款予公司</t>
+  </si>
+  <si>
     <t>91年1月31H91年2月28曰91年3月31曰91年4月30曰</t>
   </si>
   <si>
-    <t>股東借款予公司</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>台北富邦商業銀行桂林分行</t>
+  </si>
+  <si>
+    <t>96年05月16日</t>
+  </si>
+  <si>
+    <t>購置房屋</t>
+  </si>
+  <si>
     <t>保單借款</t>
   </si>
   <si>
     <t>消費性貸款</t>
   </si>
   <si>
-    <t>台北富邦商業銀行桂林分行</t>
-  </si>
-  <si>
     <t>聯邦商業銀行</t>
   </si>
   <si>
-    <t>96年05月16日</t>
-  </si>
-  <si>
     <t>98年06月22日</t>
   </si>
   <si>
@@ -403,30 +316,24 @@
     <t>100年01月28闩</t>
   </si>
   <si>
-    <t>購置房屋</t>
-  </si>
-  <si>
     <t>繳保費</t>
   </si>
   <si>
     <t>購置W</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>宇儂投資有限公司</t>
   </si>
   <si>
+    <t>臺南市南區金華路一段392號1樓</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>個人投資</t>
+  </si>
+  <si>
     <t>品潔投資有限公司</t>
   </si>
   <si>
@@ -439,16 +346,7 @@
     <t>緻薰投資有限公司</t>
   </si>
   <si>
-    <t>臺南市南區金華路一段392號1樓</t>
-  </si>
-  <si>
-    <t>90年02月20日</t>
-  </si>
-  <si>
     <t>90年02月20H</t>
-  </si>
-  <si>
-    <t>個人投資</t>
   </si>
 </sst>
 </file>
@@ -807,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,51 +754,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>51.47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1741</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -911,7 +768,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,160 +776,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45579600</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>45579600</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>169</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1090,103 +924,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>200000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>194.8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200000</v>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="2">
-        <v>194.8</v>
+        <v>1.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1204,68 +1012,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1070000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1070000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1283,40 +1068,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="D1" s="1">
+        <v>23928</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>23928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
         <v>69800</v>
       </c>
     </row>
@@ -1327,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1335,298 +1106,278 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>96952</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>96952</v>
+        <v>34213196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
-        <v>34213196</v>
+        <v>310668</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
-        <v>310668</v>
+        <v>309597</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>309597</v>
+        <v>106588</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>106588</v>
+        <v>118915</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>118915</v>
+        <v>241403</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>241403</v>
+        <v>687915</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>687915</v>
+        <v>689350</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
-        <v>689350</v>
+        <v>1344304</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>1344304</v>
+        <v>1179308</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>1179308</v>
+        <v>9612737</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
-        <v>9612737</v>
+        <v>304375</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
-        <v>304375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2">
         <v>110030</v>
       </c>
     </row>
@@ -1637,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1651,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1686,57 +1437,57 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
-        <v>5326205</v>
+        <v>135667</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>53262050</v>
+        <v>1356670</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1741</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1745,382 +1496,338 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1741</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>135667</v>
+        <v>980000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>1356670</v>
+        <v>9800000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1741</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>980000</v>
+        <v>520207</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>9800000</v>
+        <v>5202070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1741</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>520207</v>
+        <v>277716</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>5202070</v>
+        <v>2777160</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1741</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>277716</v>
+        <v>60900</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>2777160</v>
+        <v>609000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>1741</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>60900</v>
+        <v>93740</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>609000</v>
+        <v>937400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>1741</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>93740</v>
+        <v>191673</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>937400</v>
+        <v>1916730</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>1741</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N9" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>191673</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1916730</v>
+        <v>2000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>1741</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N10" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1741</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2">
         <v>79</v>
       </c>
     </row>
@@ -2131,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2139,545 +1846,531 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>145</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2695,68 +2388,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
+      </c>
+      <c r="E1" s="1">
+        <v>97331145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>97331145</v>
+        <v>19154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>151</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2">
-        <v>19154</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2436,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,114 +2444,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
+      </c>
+      <c r="E1" s="1">
+        <v>24198509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
-        <v>24198509</v>
+        <v>7662466</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
-        <v>7662466</v>
+        <v>6231419</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
-        <v>6231419</v>
+        <v>941036</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>159</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="2">
-        <v>941036</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -73,39 +73,66 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中山區北安段三小段06410000地號</t>
+  </si>
+  <si>
+    <t>100000分之1640</t>
+  </si>
+  <si>
+    <t>廖婉如</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>9676360(96年評定價格）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-09</t>
+  </si>
+  <si>
+    <t>林佳龍</t>
+  </si>
+  <si>
+    <t>tmpf4911</t>
+  </si>
+  <si>
     <t>新北市金山區西湖里</t>
   </si>
   <si>
+    <t>臺北市中山區明水路</t>
+  </si>
+  <si>
     <t>100000分之16</t>
   </si>
   <si>
-    <t>林佳龍</t>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>81分之2</t>
   </si>
   <si>
     <t>96年12月18闩</t>
   </si>
   <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>95年11月08H</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>臺北市中山區明水路</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>81分之2</t>
-  </si>
-  <si>
-    <t>廖婉如</t>
-  </si>
-  <si>
-    <t>95年11月08日</t>
-  </si>
-  <si>
-    <t>95年11月08H</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -203,15 +230,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-09</t>
-  </si>
-  <si>
-    <t>tmpf4911</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -705,13 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,6 +777,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>51.47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0164</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.844108</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +839,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,128 +847,128 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1">
         <v>45579600</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -906,7 +977,30 @@
         <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>169</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -916,85 +1010,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="P2" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.6e-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>194.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>194.8</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="M4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
+      <c r="P4" s="2">
+        <v>0.0246913580246914</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.0476543209876543</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,19 +1240,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1">
         <v>1070000</v>
@@ -1032,25 +1260,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1070000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1068,10 +1319,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1">
         <v>23928</v>
@@ -1079,15 +1330,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
         <v>69800</v>
       </c>
     </row>
@@ -1098,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1106,16 +1371,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1">
         <v>96952</v>
@@ -1123,261 +1388,281 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>34213196</v>
+        <v>96952</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>310668</v>
+        <v>34213196</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2">
-        <v>309597</v>
+        <v>310668</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2">
-        <v>106588</v>
+        <v>309597</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>118915</v>
+        <v>106588</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>241403</v>
+        <v>118915</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>687915</v>
+        <v>241403</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>689350</v>
+        <v>687915</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>1344304</v>
+        <v>689350</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>1179308</v>
+        <v>1344304</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>9612737</v>
+        <v>1179308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>304375</v>
+        <v>9612737</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>304375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
         <v>110030</v>
       </c>
     </row>
@@ -1388,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1402,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1437,57 +1722,57 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>135667</v>
+        <v>5326205</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
-        <v>1356670</v>
+        <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>1741</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1496,338 +1781,382 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>1741</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
-        <v>980000</v>
+        <v>135667</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
-        <v>9800000</v>
+        <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>1741</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>520207</v>
+        <v>980000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
-        <v>5202070</v>
+        <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>1741</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>277716</v>
+        <v>520207</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
-        <v>2777160</v>
+        <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>1741</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>60900</v>
+        <v>277716</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
-        <v>609000</v>
+        <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>1741</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>93740</v>
+        <v>60900</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
-        <v>937400</v>
+        <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>1741</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>191673</v>
+        <v>93740</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
-        <v>1916730</v>
+        <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>1741</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>200000</v>
+        <v>191673</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
-        <v>2000000</v>
+        <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <v>1741</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1838,7 +2167,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,122 +2175,122 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1969,408 +2298,422 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
         <v>145</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,45 +2731,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>97331145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>97331145</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>151</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2">
         <v>19154</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2802,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2444,91 +2810,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>24198509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
-        <v>7662466</v>
+        <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
-        <v>6231419</v>
+        <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6231419</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>159</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2">
         <v>941036</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>98</v>
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -139,13 +139,16 @@
     <t>(超過五年地下一二層）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>TOYOTARAV4</t>
   </si>
   <si>
+    <t>TOYOTAPrevia</t>
+  </si>
+  <si>
     <t>101年</t>
-  </si>
-  <si>
-    <t>TOYOTAPrevia</t>
   </si>
   <si>
     <t>100年</t>
@@ -850,19 +853,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>45579600</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -873,19 +876,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -896,19 +899,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -919,19 +922,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -942,19 +945,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -965,19 +968,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -988,19 +991,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1232,38 +1235,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1070000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1272,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -1280,8 +1304,29 @@
       <c r="G2" s="2">
         <v>1070000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -1295,13 +1340,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -1333,7 +1399,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1347,7 +1413,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1371,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1391,13 +1457,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1411,13 +1477,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1431,16 +1497,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2">
         <v>310668</v>
@@ -1451,16 +1517,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <v>309597</v>
@@ -1471,13 +1537,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1491,13 +1557,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1511,13 +1577,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1531,13 +1597,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1551,13 +1617,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1571,13 +1637,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1591,13 +1657,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1611,13 +1677,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1631,13 +1697,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1651,13 +1717,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1687,13 +1753,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1725,7 +1791,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1737,13 +1803,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1769,10 +1835,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1781,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1813,10 +1879,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1825,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1857,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1869,13 +1935,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1901,7 +1967,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1913,13 +1979,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1945,7 +2011,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1957,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1989,7 +2055,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2001,13 +2067,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -2033,7 +2099,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2045,13 +2111,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -2077,7 +2143,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2089,13 +2155,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -2121,7 +2187,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2133,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2">
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2175,10 +2241,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -2189,10 +2255,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2203,10 +2269,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2217,10 +2283,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2231,10 +2297,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2245,10 +2311,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2259,10 +2325,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2273,10 +2339,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -2287,10 +2353,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2301,10 +2367,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -2315,13 +2381,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2329,13 +2395,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2343,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2357,10 +2423,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -2371,10 +2437,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -2385,10 +2451,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -2399,10 +2465,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -2413,10 +2479,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -2427,10 +2493,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -2441,10 +2507,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2455,10 +2521,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -2469,10 +2535,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -2483,10 +2549,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -2497,10 +2563,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
@@ -2511,10 +2577,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
@@ -2525,10 +2591,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -2539,10 +2605,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -2553,10 +2619,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -2567,10 +2633,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -2581,10 +2647,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2595,10 +2661,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
@@ -2609,10 +2675,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -2623,10 +2689,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
@@ -2637,10 +2703,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2651,10 +2717,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -2665,10 +2731,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2679,10 +2745,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
@@ -2693,10 +2759,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
@@ -2707,10 +2773,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -2731,22 +2797,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>97331145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2754,22 +2820,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2777,22 +2843,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2810,22 +2876,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>24198509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2833,22 +2899,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2856,22 +2922,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2879,22 +2945,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2902,22 +2968,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>(超過五年地下一二層）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>1600000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -853,19 +859,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1">
         <v>45579600</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -876,19 +882,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -899,19 +905,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -922,19 +928,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -945,19 +951,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -968,19 +974,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -991,19 +997,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1101,7 @@
         <v>200000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -1148,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -1201,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1287,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1296,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -1305,7 +1311,7 @@
         <v>1070000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1331,7 +1337,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1340,16 +1346,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1385,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -1399,7 +1405,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1413,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1437,13 +1443,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1457,13 +1463,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1477,13 +1483,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1497,16 +1503,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
         <v>310668</v>
@@ -1517,16 +1523,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2">
         <v>309597</v>
@@ -1537,13 +1543,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1557,13 +1563,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1577,13 +1583,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1597,13 +1603,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1617,13 +1623,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1637,13 +1643,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1657,13 +1663,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1677,13 +1683,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1697,13 +1703,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1717,13 +1723,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1753,13 +1759,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1791,7 +1797,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1803,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1835,10 +1841,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1847,13 +1853,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1879,10 +1885,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1891,13 +1897,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1923,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1935,13 +1941,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1967,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1979,13 +1985,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -2011,7 +2017,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2023,13 +2029,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -2055,7 +2061,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2067,13 +2073,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -2099,7 +2105,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2111,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -2143,7 +2149,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2155,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -2187,7 +2193,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2199,13 +2205,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2241,10 +2247,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -2255,10 +2261,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2269,10 +2275,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2283,10 +2289,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2297,10 +2303,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2311,10 +2317,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2325,10 +2331,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2339,10 +2345,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -2353,10 +2359,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2367,10 +2373,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -2381,13 +2387,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2395,13 +2401,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2409,10 +2415,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2423,10 +2429,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -2437,10 +2443,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -2451,10 +2457,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -2465,10 +2471,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -2479,10 +2485,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -2493,10 +2499,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -2507,10 +2513,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2521,10 +2527,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -2535,10 +2541,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -2549,10 +2555,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -2563,10 +2569,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
@@ -2577,10 +2583,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
@@ -2591,10 +2597,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -2605,10 +2611,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -2619,10 +2625,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -2633,10 +2639,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -2647,10 +2653,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2661,10 +2667,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
@@ -2675,10 +2681,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -2689,10 +2695,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
@@ -2703,10 +2709,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2717,10 +2723,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -2731,10 +2737,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2745,10 +2751,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
@@ -2759,10 +2765,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
@@ -2773,10 +2779,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -2797,22 +2803,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>97331145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2820,22 +2826,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2843,22 +2849,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2876,22 +2882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>24198509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2899,22 +2905,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2922,22 +2928,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2945,22 +2951,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2968,22 +2974,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -163,33 +163,45 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>華南商業銀行台南分行</t>
   </si>
   <si>
+    <t>華南商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行營業部</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行中港分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>華南商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行營業部</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行中港分行</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -199,13 +211,13 @@
     <t>林〇涵</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>奇美實業(股)(公開發行）</t>
@@ -859,19 +871,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>45579600</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -882,19 +894,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -905,19 +917,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -928,19 +940,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -951,19 +963,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -974,19 +986,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -997,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1383,29 +1395,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1">
-        <v>23928</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1413,19 +1446,61 @@
       <c r="D2" s="2">
         <v>23928</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>69800</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1435,41 +1510,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>96952</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1477,19 +1573,40 @@
       <c r="F2" s="2">
         <v>96952</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1497,59 +1614,122 @@
       <c r="F3" s="2">
         <v>34213196</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>310668</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>309597</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1557,19 +1737,40 @@
       <c r="F6" s="2">
         <v>106588</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1577,19 +1778,40 @@
       <c r="F7" s="2">
         <v>118915</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1597,19 +1819,40 @@
       <c r="F8" s="2">
         <v>241403</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1617,19 +1860,40 @@
       <c r="F9" s="2">
         <v>687915</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1637,19 +1901,40 @@
       <c r="F10" s="2">
         <v>689350</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1657,19 +1942,40 @@
       <c r="F11" s="2">
         <v>1344304</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1677,19 +1983,40 @@
       <c r="F12" s="2">
         <v>1179308</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1697,19 +2024,40 @@
       <c r="F13" s="2">
         <v>9612737</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1717,25 +2065,67 @@
       <c r="F14" s="2">
         <v>304375</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>110030</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1741</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1759,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1797,7 +2187,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1809,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>53262050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1841,10 +2231,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2">
         <v>135667</v>
@@ -1853,13 +2243,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>1356670</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1885,10 +2275,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2">
         <v>135667</v>
@@ -1897,13 +2287,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>1356670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1929,7 +2319,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1941,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
         <v>9800000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1973,7 +2363,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1985,13 +2375,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>5202070</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -2017,7 +2407,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2029,13 +2419,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
         <v>2777160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -2061,7 +2451,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2073,13 +2463,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
         <v>609000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -2105,7 +2495,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2117,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>937400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -2149,7 +2539,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2161,13 +2551,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
         <v>1916730</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -2193,7 +2583,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2205,13 +2595,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
         <v>2000000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2247,10 +2637,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -2261,10 +2651,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2275,10 +2665,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2289,10 +2679,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2303,10 +2693,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2317,10 +2707,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2331,10 +2721,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2345,10 +2735,10 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -2359,10 +2749,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2373,10 +2763,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -2387,13 +2777,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2401,13 +2791,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2415,10 +2805,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -2429,10 +2819,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -2443,10 +2833,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -2457,10 +2847,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -2471,10 +2861,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -2485,10 +2875,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -2499,10 +2889,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -2513,10 +2903,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2527,10 +2917,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -2541,10 +2931,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -2555,10 +2945,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -2569,10 +2959,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
@@ -2583,10 +2973,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
@@ -2597,10 +2987,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -2611,10 +3001,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -2625,10 +3015,10 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -2639,10 +3029,10 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -2653,10 +3043,10 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2667,10 +3057,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
@@ -2681,10 +3071,10 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -2695,10 +3085,10 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
@@ -2709,10 +3099,10 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2723,10 +3113,10 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -2737,10 +3127,10 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2751,10 +3141,10 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
@@ -2765,10 +3155,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
@@ -2779,10 +3169,10 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -2803,22 +3193,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>97331145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2826,22 +3216,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2849,22 +3239,22 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2882,22 +3272,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>24198509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2905,22 +3295,22 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2928,22 +3318,22 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2951,22 +3341,22 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2974,22 +3364,22 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -253,21 +253,24 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>二商美邦人壽</t>
+  </si>
+  <si>
+    <t>國際紐約人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>20年繳費祥松增額終身壽險</t>
   </si>
   <si>
-    <t>二商美邦人壽</t>
-  </si>
-  <si>
-    <t>國際紐約人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>15年繳費金富多終身保險</t>
   </si>
   <si>
@@ -310,6 +313,15 @@
     <t>PWFA真享受終身分紅保險(甲型）</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>股東往來借款</t>
   </si>
   <si>
@@ -319,73 +331,85 @@
     <t>94年09月06日</t>
   </si>
   <si>
+    <t>91年1月31H91年2月28曰91年3月31曰91年4月30曰</t>
+  </si>
+  <si>
     <t>股東借款予公司</t>
   </si>
   <si>
-    <t>91年1月31H91年2月28曰91年3月31曰91年4月30曰</t>
+    <t>claim</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>保單借款</t>
+  </si>
+  <si>
+    <t>消費性貸款</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行桂林分行</t>
   </si>
   <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
     <t>96年05月16日</t>
   </si>
   <si>
+    <t>98年06月22日</t>
+  </si>
+  <si>
+    <t>98年06月22H</t>
+  </si>
+  <si>
+    <t>100年01月28闩</t>
+  </si>
+  <si>
     <t>購置房屋</t>
   </si>
   <si>
-    <t>保單借款</t>
-  </si>
-  <si>
-    <t>消費性貸款</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>98年06月22日</t>
-  </si>
-  <si>
-    <t>98年06月22H</t>
-  </si>
-  <si>
-    <t>100年01月28闩</t>
-  </si>
-  <si>
     <t>繳保費</t>
   </si>
   <si>
     <t>購置W</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>宇儂投資有限公司</t>
   </si>
   <si>
+    <t>品潔投資有限公司</t>
+  </si>
+  <si>
+    <t>乃成投資有限公司</t>
+  </si>
+  <si>
+    <t>華雅投資有限公司</t>
+  </si>
+  <si>
+    <t>緻薰投資有限公司</t>
+  </si>
+  <si>
     <t>臺南市南區金華路一段392號1樓</t>
   </si>
   <si>
     <t>90年02月20日</t>
   </si>
   <si>
+    <t>90年02月20H</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>品潔投資有限公司</t>
-  </si>
-  <si>
-    <t>乃成投資有限公司</t>
-  </si>
-  <si>
-    <t>華雅投資有限公司</t>
-  </si>
-  <si>
-    <t>緻薰投資有限公司</t>
-  </si>
-  <si>
-    <t>90年02月20H</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -860,33 +884,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45579600</v>
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>164</v>
       </c>
@@ -894,22 +939,43 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>165</v>
       </c>
@@ -917,22 +983,43 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>166</v>
       </c>
@@ -940,22 +1027,43 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>167</v>
       </c>
@@ -963,22 +1071,43 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>168</v>
       </c>
@@ -986,22 +1115,43 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>169</v>
       </c>
@@ -1009,19 +1159,40 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2629,94 +2800,220 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>111</v>
       </c>
@@ -2724,13 +3021,34 @@
         <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>112</v>
       </c>
@@ -2738,13 +3056,34 @@
         <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>113</v>
       </c>
@@ -2752,13 +3091,34 @@
         <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>114</v>
       </c>
@@ -2766,13 +3126,34 @@
         <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>115</v>
       </c>
@@ -2780,13 +3161,34 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>116</v>
       </c>
@@ -2794,13 +3196,34 @@
         <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>117</v>
       </c>
@@ -2808,13 +3231,34 @@
         <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>118</v>
       </c>
@@ -2822,13 +3266,34 @@
         <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>120</v>
       </c>
@@ -2836,13 +3301,34 @@
         <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>121</v>
       </c>
@@ -2850,13 +3336,34 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>122</v>
       </c>
@@ -2864,13 +3371,34 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>123</v>
       </c>
@@ -2878,13 +3406,34 @@
         <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>124</v>
       </c>
@@ -2892,13 +3441,34 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>125</v>
       </c>
@@ -2906,13 +3476,34 @@
         <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>126</v>
       </c>
@@ -2920,13 +3511,34 @@
         <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>127</v>
       </c>
@@ -2934,13 +3546,34 @@
         <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>128</v>
       </c>
@@ -2948,13 +3581,34 @@
         <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>129</v>
       </c>
@@ -2962,13 +3616,34 @@
         <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>130</v>
       </c>
@@ -2976,13 +3651,34 @@
         <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>131</v>
       </c>
@@ -2990,13 +3686,34 @@
         <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>132</v>
       </c>
@@ -3004,13 +3721,34 @@
         <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>133</v>
       </c>
@@ -3018,13 +3756,34 @@
         <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>134</v>
       </c>
@@ -3032,13 +3791,34 @@
         <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>135</v>
       </c>
@@ -3046,13 +3826,34 @@
         <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>136</v>
       </c>
@@ -3060,13 +3861,34 @@
         <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>137</v>
       </c>
@@ -3074,13 +3896,34 @@
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>138</v>
       </c>
@@ -3088,13 +3931,34 @@
         <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>139</v>
       </c>
@@ -3102,13 +3966,34 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>140</v>
       </c>
@@ -3116,13 +4001,34 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>141</v>
       </c>
@@ -3130,13 +4036,34 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>143</v>
       </c>
@@ -3144,13 +4071,34 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>144</v>
       </c>
@@ -3158,13 +4106,34 @@
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>145</v>
       </c>
@@ -3172,10 +4141,31 @@
         <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3185,76 +4175,139 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1">
-        <v>97331145</v>
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3264,84 +4317,147 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1">
-        <v>24198509</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -3353,33 +4469,75 @@
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1741</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
+++ b/legislator/property/output/normal/林佳龍_2012-04-09_財產申報表_tmpf4911.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>三商美邦人壽</t>
   </si>
   <si>
-    <t>二商美邦人壽</t>
-  </si>
-  <si>
     <t>國際紐約人壽</t>
   </si>
   <si>
@@ -280,7 +277,7 @@
     <t>15年繳費金富多终身保險</t>
   </si>
   <si>
-    <t>永安終身壽險主約:I£OM005886</t>
+    <t>永安終身壽險主約:LBOM005886</t>
   </si>
   <si>
     <t>永安终身壽險(附約）</t>
@@ -898,7 +895,7 @@
         <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -939,22 +936,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2">
         <v>45579600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -983,22 +980,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1027,22 +1024,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1071,22 +1068,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1115,22 +1112,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1159,22 +1156,22 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -2846,13 +2843,13 @@
         <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -2881,13 +2878,13 @@
         <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -2916,13 +2913,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
@@ -2951,13 +2948,13 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -2986,13 +2983,13 @@
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -3018,16 +3015,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -3053,16 +3050,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>23</v>
@@ -3088,16 +3085,16 @@
         <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>23</v>
@@ -3123,16 +3120,16 @@
         <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -3158,16 +3155,16 @@
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>23</v>
@@ -3193,16 +3190,16 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
@@ -3228,16 +3225,16 @@
         <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -3263,16 +3260,16 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>23</v>
@@ -3298,16 +3295,16 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>23</v>
@@ -3333,16 +3330,16 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>23</v>
@@ -3368,16 +3365,16 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
@@ -3403,16 +3400,16 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>23</v>
@@ -3438,16 +3435,16 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
@@ -3473,16 +3470,16 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>23</v>
@@ -3508,16 +3505,16 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>23</v>
@@ -3543,16 +3540,16 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>23</v>
@@ -3578,16 +3575,16 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>23</v>
@@ -3613,16 +3610,16 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>23</v>
@@ -3648,16 +3645,16 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>23</v>
@@ -3683,16 +3680,16 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>23</v>
@@ -3718,16 +3715,16 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
@@ -3753,16 +3750,16 @@
         <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>23</v>
@@ -3788,16 +3785,16 @@
         <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>23</v>
@@ -3823,16 +3820,16 @@
         <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
@@ -3858,16 +3855,16 @@
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
@@ -3893,16 +3890,16 @@
         <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
@@ -3928,16 +3925,16 @@
         <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>23</v>
@@ -3963,16 +3960,16 @@
         <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>23</v>
@@ -3998,16 +3995,16 @@
         <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>23</v>
@@ -4033,16 +4030,16 @@
         <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>23</v>
@@ -4068,16 +4065,16 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
@@ -4103,16 +4100,16 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -4138,16 +4135,16 @@
         <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
@@ -4183,13 +4180,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -4227,25 +4224,25 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>97331145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -4271,25 +4268,25 @@
         <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>19154</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -4325,10 +4322,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4369,25 +4366,25 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>24198509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -4413,7 +4410,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -4425,13 +4422,13 @@
         <v>7662466</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -4457,25 +4454,25 @@
         <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>6231419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -4501,25 +4498,25 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2">
         <v>941036</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
